--- a/config_debug/activity_xycj_config.xlsx
+++ b/config_debug/activity_xycj_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\JyQipai_doc\config_3D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="config|配置" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
   <si>
     <t>line|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -59,9 +59,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ls_icon_hb1</t>
-  </si>
-  <si>
     <t>is_dj|是否是大奖</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -82,11 +79,99 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>福利券x1500</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利券x1200</t>
+    <t>ty_icon_flq1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq2</t>
+  </si>
+  <si>
+    <t>ty_icon_flq3</t>
+  </si>
+  <si>
+    <t>ty_icon_flq5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq4</t>
+  </si>
+  <si>
+    <t>ty_icon_flq2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_198y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_30y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_50y</t>
+  </si>
+  <si>
+    <t>ty_icon_jb_50y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100元京东E卡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>50元话费</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000福利券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为荣耀9X</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为P30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10元话费</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000福利券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>俄罗斯进口巧克力</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800福利券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>50元话费</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券x600</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券x285</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券x2400</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券x600</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券x300</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -98,136 +183,87 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>福利券x250</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_flq1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_flq2</t>
-  </si>
-  <si>
-    <t>ty_icon_flq3</t>
-  </si>
-  <si>
-    <t>福利券x15000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币x2000万</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利券x25000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利券x4500</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利券x4250</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利券x4750</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币x425万</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币x475万</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币x450万</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币x400万</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_flq5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_flq4</t>
-  </si>
-  <si>
-    <t>ty_icon_flq2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_jb_198y</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_jb_30y</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_jb_50y</t>
-  </si>
-  <si>
-    <t>ty_icon_jb_50y</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>100元京东E卡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000福利券</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>50元话费</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000福利券</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>华为荣耀9X</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>168800福利券</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>华为P30</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>469900福利券</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10元话费</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000福利券</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>俄罗斯进口巧克力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1800福利券</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>50元话费</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>福利券x2400</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券x255</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券x4.75万</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币x1000万</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券x100万</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币x500万</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券x10万</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币x1亿</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券x4.25万</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币x500万</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券x40万</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币x1000万</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1万福利券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>46万福利券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>16万福利券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1万福利券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_icon_gift184_wshf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_icon_gift185_syhf</t>
+  </si>
+  <si>
+    <t>activity_icon_gift186_jdyb</t>
+  </si>
+  <si>
+    <t>activity_icon_gift187_qklt</t>
+  </si>
+  <si>
+    <t>activity_icon_gift188_hwsj</t>
+  </si>
+  <si>
+    <t>activity_icon_gift189_hwsj1</t>
   </si>
 </sst>
 </file>
@@ -271,7 +307,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,6 +323,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,7 +364,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -354,16 +396,24 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -645,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -690,7 +740,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -704,18 +754,17 @@
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E2" s="10">
         <v>1</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="12">
+      <c r="F2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="11">
         <v>0</v>
       </c>
-      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
@@ -728,18 +777,17 @@
         <v>1</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E3" s="10">
         <v>1</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="12">
+      <c r="F3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="11">
         <v>0</v>
       </c>
-      <c r="H3" s="9"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -753,18 +801,17 @@
         <v>1</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E4" s="10">
         <v>1</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="12">
-        <v>1</v>
-      </c>
-      <c r="H4" s="9"/>
+      <c r="F4" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="11">
+        <v>1</v>
+      </c>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
@@ -778,18 +825,17 @@
         <v>1</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E5" s="10">
         <v>1</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="12">
+      <c r="F5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="11">
         <v>0</v>
       </c>
-      <c r="H5" s="9"/>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
@@ -803,18 +849,17 @@
         <v>1</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E6" s="10">
         <v>1</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="12">
+      <c r="F6" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="11">
         <v>0</v>
       </c>
-      <c r="H6" s="9"/>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -828,18 +873,17 @@
         <v>1</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E7" s="10">
         <v>1</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="12">
-        <v>1</v>
-      </c>
-      <c r="H7" s="9"/>
+      <c r="F7" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="11">
+        <v>1</v>
+      </c>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -853,18 +897,17 @@
         <v>1</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E8" s="10">
         <v>1</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="12">
+      <c r="F8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="11">
         <v>0</v>
       </c>
-      <c r="H8" s="9"/>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -878,18 +921,17 @@
         <v>1</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E9" s="10">
         <v>1</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="12">
+      <c r="F9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="11">
         <v>0</v>
       </c>
-      <c r="H9" s="9"/>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -903,18 +945,17 @@
         <v>1</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E10" s="10">
         <v>1</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="12">
-        <v>1</v>
-      </c>
-      <c r="H10" s="9"/>
+      <c r="F10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="11">
+        <v>1</v>
+      </c>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -928,86 +969,85 @@
         <v>1</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E11" s="10">
         <v>1</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="12">
+      <c r="F11" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="11">
         <v>0</v>
       </c>
-      <c r="H11" s="9"/>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+      <c r="A12" s="15">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="15">
         <v>11</v>
       </c>
-      <c r="C12" s="4">
-        <v>2</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="C12" s="15">
+        <v>2</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="17">
         <v>1</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="14">
+        <v>43</v>
+      </c>
+      <c r="G12" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+      <c r="A13" s="15">
         <v>12</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="15">
         <v>12</v>
       </c>
-      <c r="C13" s="4">
-        <v>2</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="C13" s="15">
+        <v>2</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="17">
         <v>1</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="14">
+        <v>44</v>
+      </c>
+      <c r="G13" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+      <c r="A14" s="15">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="15">
         <v>13</v>
       </c>
-      <c r="C14" s="4">
-        <v>2</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="C14" s="15">
+        <v>2</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="17">
         <v>1</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="14">
+        <v>45</v>
+      </c>
+      <c r="G14" s="18">
         <v>1</v>
       </c>
       <c r="L14" s="5"/>
@@ -1019,25 +1059,25 @@
       <c r="R14" s="1"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+      <c r="A15" s="15">
         <v>14</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="15">
         <v>14</v>
       </c>
-      <c r="C15" s="4">
-        <v>2</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="C15" s="15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="17">
         <v>1</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="14">
+        <v>46</v>
+      </c>
+      <c r="G15" s="18">
         <v>0</v>
       </c>
       <c r="L15" s="5"/>
@@ -1049,25 +1089,25 @@
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+      <c r="A16" s="15">
         <v>15</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="15">
         <v>15</v>
       </c>
-      <c r="C16" s="4">
-        <v>2</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="C16" s="15">
+        <v>2</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="17">
         <v>1</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="14">
+        <v>47</v>
+      </c>
+      <c r="G16" s="18">
         <v>0</v>
       </c>
       <c r="L16" s="5"/>
@@ -1079,25 +1119,25 @@
       <c r="R16" s="1"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+      <c r="A17" s="15">
         <v>16</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="15">
         <v>16</v>
       </c>
-      <c r="C17" s="4">
-        <v>2</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="C17" s="15">
+        <v>2</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="17">
         <v>1</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="14">
+        <v>48</v>
+      </c>
+      <c r="G17" s="18">
         <v>1</v>
       </c>
       <c r="L17" s="5"/>
@@ -1109,25 +1149,25 @@
       <c r="R17" s="1"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+      <c r="A18" s="15">
         <v>17</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="15">
         <v>17</v>
       </c>
-      <c r="C18" s="4">
-        <v>2</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="C18" s="15">
+        <v>2</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="17">
         <v>1</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="14">
+        <v>49</v>
+      </c>
+      <c r="G18" s="18">
         <v>0</v>
       </c>
       <c r="L18" s="5"/>
@@ -1139,25 +1179,25 @@
       <c r="R18" s="1"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+      <c r="A19" s="15">
         <v>18</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="15">
         <v>18</v>
       </c>
-      <c r="C19" s="4">
-        <v>2</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="C19" s="15">
+        <v>2</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="17">
         <v>1</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="14">
+        <v>50</v>
+      </c>
+      <c r="G19" s="18">
         <v>0</v>
       </c>
       <c r="L19" s="5"/>
@@ -1169,25 +1209,25 @@
       <c r="R19" s="1"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+      <c r="A20" s="15">
         <v>19</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="15">
         <v>19</v>
       </c>
-      <c r="C20" s="4">
-        <v>2</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="C20" s="15">
+        <v>2</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="17">
         <v>1</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="14">
+        <v>51</v>
+      </c>
+      <c r="G20" s="18">
         <v>1</v>
       </c>
       <c r="L20" s="5"/>
@@ -1199,25 +1239,25 @@
       <c r="R20" s="1"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
+      <c r="A21" s="15">
         <v>20</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="15">
         <v>20</v>
       </c>
-      <c r="C21" s="4">
-        <v>2</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="C21" s="15">
+        <v>2</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="17">
         <v>1</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="14">
+        <v>52</v>
+      </c>
+      <c r="G21" s="18">
         <v>0</v>
       </c>
       <c r="L21" s="1"/>
@@ -1247,10 +1287,12 @@
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
+      <c r="F26" s="12"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
+      <c r="F27" s="12"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
@@ -1334,14 +1376,14 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.25" customWidth="1"/>
     <col min="2" max="2" width="18.75" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="25.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5" customWidth="1"/>
     <col min="5" max="5" width="17.625" customWidth="1"/>
     <col min="6" max="6" width="15.375" customWidth="1"/>
@@ -1358,13 +1400,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1375,16 +1417,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1395,16 +1437,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1415,16 +1457,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1435,16 +1477,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1455,16 +1497,16 @@
         <v>2</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1475,16 +1517,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1495,16 +1537,16 @@
         <v>2</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1515,16 +1557,16 @@
         <v>2</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1552,6 +1594,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1559,7 +1602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>

--- a/config_debug/activity_xycj_config.xlsx
+++ b/config_debug/activity_xycj_config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
   <si>
     <t>line|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -93,177 +93,186 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>ty_icon_jb_198y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_30y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_50y</t>
+  </si>
+  <si>
+    <t>ty_icon_jb_50y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100元京东E卡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>50元话费</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000福利券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为荣耀9X</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为P30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10元话费</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000福利券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>俄罗斯进口巧克力</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800福利券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>50元话费</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券x600</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券x285</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券x2400</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券x600</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券x300</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券x900</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券x300</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券x2400</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券x255</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券x4.75万</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币x1000万</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券x100万</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币x500万</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券x10万</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币x1亿</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券x4.25万</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币x500万</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券x40万</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币x1000万</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1万福利券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>46万福利券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>16万福利券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1万福利券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_icon_gift184_wshf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_icon_gift185_syhf</t>
+  </si>
+  <si>
+    <t>activity_icon_gift186_jdyb</t>
+  </si>
+  <si>
+    <t>activity_icon_gift187_qklt</t>
+  </si>
+  <si>
+    <t>activity_icon_gift188_hwsj</t>
+  </si>
+  <si>
+    <t>activity_icon_gift189_hwsj1</t>
+  </si>
+  <si>
     <t>ty_icon_flq4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ty_icon_flq2</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ty_icon_jb_198y</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_jb_30y</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_jb_50y</t>
-  </si>
-  <si>
-    <t>ty_icon_jb_50y</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>100元京东E卡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>50元话费</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000福利券</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>华为荣耀9X</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>华为P30</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10元话费</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000福利券</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>俄罗斯进口巧克力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1800福利券</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>50元话费</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利券x600</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利券x285</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利券x2400</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利券x600</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利券x300</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利券x900</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利券x300</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利券x2400</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利券x255</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利券x4.75万</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币x1000万</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利券x100万</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币x500万</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利券x10万</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币x1亿</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利券x4.25万</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币x500万</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利券x40万</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币x1000万</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1万福利券</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>46万福利券</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>16万福利券</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1万福利券</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>activity_icon_gift184_wshf</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>activity_icon_gift185_syhf</t>
-  </si>
-  <si>
-    <t>activity_icon_gift186_jdyb</t>
-  </si>
-  <si>
-    <t>activity_icon_gift187_qklt</t>
-  </si>
-  <si>
-    <t>activity_icon_gift188_hwsj</t>
-  </si>
-  <si>
-    <t>activity_icon_gift189_hwsj1</t>
+    <t>ty_icon_flq4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -696,7 +705,7 @@
   <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -760,7 +769,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G2" s="11">
         <v>0</v>
@@ -783,7 +792,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G3" s="11">
         <v>0</v>
@@ -807,7 +816,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G4" s="11">
         <v>1</v>
@@ -831,7 +840,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G5" s="11">
         <v>0</v>
@@ -855,7 +864,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G6" s="11">
         <v>0</v>
@@ -879,7 +888,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G7" s="11">
         <v>1</v>
@@ -903,7 +912,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G8" s="11">
         <v>0</v>
@@ -927,7 +936,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G9" s="11">
         <v>0</v>
@@ -951,7 +960,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G10" s="11">
         <v>1</v>
@@ -975,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G11" s="11">
         <v>0</v>
@@ -993,13 +1002,13 @@
         <v>2</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E12" s="17">
         <v>1</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G12" s="18">
         <v>0</v>
@@ -1016,13 +1025,13 @@
         <v>2</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13" s="17">
         <v>1</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G13" s="18">
         <v>0</v>
@@ -1045,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G14" s="18">
         <v>1</v>
@@ -1069,13 +1078,13 @@
         <v>2</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E15" s="17">
         <v>1</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G15" s="18">
         <v>0</v>
@@ -1099,13 +1108,13 @@
         <v>2</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="E16" s="17">
         <v>1</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G16" s="18">
         <v>0</v>
@@ -1129,13 +1138,13 @@
         <v>2</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E17" s="17">
         <v>1</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G17" s="18">
         <v>1</v>
@@ -1159,13 +1168,13 @@
         <v>2</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="E18" s="17">
         <v>1</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G18" s="18">
         <v>0</v>
@@ -1189,13 +1198,13 @@
         <v>2</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E19" s="17">
         <v>1</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G19" s="18">
         <v>0</v>
@@ -1219,13 +1228,13 @@
         <v>2</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="E20" s="17">
         <v>1</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G20" s="18">
         <v>1</v>
@@ -1249,13 +1258,13 @@
         <v>2</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E21" s="17">
         <v>1</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G21" s="18">
         <v>0</v>
@@ -1376,7 +1385,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1417,13 +1426,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>13</v>
@@ -1437,13 +1446,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>13</v>
@@ -1457,13 +1466,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>13</v>
@@ -1477,13 +1486,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>13</v>
@@ -1497,13 +1506,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>13</v>
@@ -1517,13 +1526,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>13</v>
@@ -1537,13 +1546,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>13</v>
@@ -1557,13 +1566,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>13</v>

--- a/config_debug/activity_xycj_config.xlsx
+++ b/config_debug/activity_xycj_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3DBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -184,10 +184,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>福利券x4.75万</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>金币x1000万</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -208,10 +204,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>福利券x4.25万</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>金币x500万</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -272,6 +264,14 @@
   </si>
   <si>
     <t>ty_icon_flq3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券x4250</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券x4750</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -705,7 +705,7 @@
   <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1002,13 +1002,13 @@
         <v>2</v>
       </c>
       <c r="D12" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="17">
+        <v>1</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>64</v>
-      </c>
-      <c r="E12" s="17">
-        <v>1</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>41</v>
       </c>
       <c r="G12" s="18">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" s="18">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G14" s="18">
         <v>1</v>
@@ -1084,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G15" s="18">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>2</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E16" s="17">
         <v>1</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G16" s="18">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G17" s="18">
         <v>1</v>
@@ -1168,13 +1168,13 @@
         <v>2</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E18" s="17">
         <v>1</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="G18" s="18">
         <v>0</v>
@@ -1204,7 +1204,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G19" s="18">
         <v>0</v>
@@ -1228,13 +1228,13 @@
         <v>2</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E20" s="17">
         <v>1</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G20" s="18">
         <v>1</v>
@@ -1264,7 +1264,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G21" s="18">
         <v>0</v>
@@ -1426,13 +1426,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>13</v>
@@ -1446,7 +1446,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>31</v>
@@ -1466,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>29</v>
@@ -1486,7 +1486,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>27</v>
@@ -1506,13 +1506,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>13</v>
@@ -1526,13 +1526,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>13</v>
@@ -1546,13 +1546,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>13</v>
@@ -1566,7 +1566,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>23</v>

--- a/config_debug/activity_xycj_config.xlsx
+++ b/config_debug/activity_xycj_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\JyQipai_doc\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -731,10 +731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R47"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -748,17 +748,15 @@
     <col min="7" max="7" width="19.25" customWidth="1"/>
     <col min="8" max="8" width="22.125" customWidth="1"/>
     <col min="9" max="9" width="17.625" customWidth="1"/>
-    <col min="10" max="10" width="28.25" customWidth="1"/>
-    <col min="11" max="11" width="24.25" customWidth="1"/>
-    <col min="12" max="12" width="25.125" customWidth="1"/>
-    <col min="13" max="13" width="23.75" customWidth="1"/>
-    <col min="14" max="14" width="21.75" customWidth="1"/>
-    <col min="15" max="16" width="24.25" customWidth="1"/>
-    <col min="17" max="17" width="21.125" customWidth="1"/>
-    <col min="18" max="21" width="12.75" customWidth="1"/>
+    <col min="10" max="10" width="25.125" customWidth="1"/>
+    <col min="11" max="11" width="23.75" customWidth="1"/>
+    <col min="12" max="12" width="21.75" customWidth="1"/>
+    <col min="13" max="14" width="24.25" customWidth="1"/>
+    <col min="15" max="15" width="21.125" customWidth="1"/>
+    <col min="16" max="19" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -787,7 +785,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -816,7 +814,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -844,9 +842,8 @@
       <c r="I3" s="11">
         <v>285</v>
       </c>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -874,9 +871,8 @@
       <c r="I4" s="11">
         <v>2400</v>
       </c>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -904,9 +900,8 @@
       <c r="I5" s="11">
         <v>600</v>
       </c>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -934,9 +929,8 @@
       <c r="I6" s="11">
         <v>300</v>
       </c>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -964,9 +958,8 @@
       <c r="I7" s="11">
         <v>900</v>
       </c>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -994,9 +987,8 @@
       <c r="I8" s="11">
         <v>600</v>
       </c>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1024,9 +1016,8 @@
       <c r="I9" s="11">
         <v>300</v>
       </c>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1054,9 +1045,8 @@
       <c r="I10" s="11">
         <v>2400</v>
       </c>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1084,9 +1074,8 @@
       <c r="I11" s="11">
         <v>255</v>
       </c>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -1115,7 +1104,7 @@
         <v>4750</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -1144,7 +1133,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -1172,15 +1161,15 @@
       <c r="I14" s="18">
         <v>1000000</v>
       </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -1208,15 +1197,15 @@
       <c r="I15" s="18">
         <v>5000000</v>
       </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -1242,17 +1231,17 @@
         <v>66</v>
       </c>
       <c r="I16" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="L16" s="5"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+        <v>100000</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -1280,15 +1269,15 @@
       <c r="I17" s="18">
         <v>100000000</v>
       </c>
-      <c r="L17" s="5"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -1316,15 +1305,15 @@
       <c r="I18" s="18">
         <v>4250</v>
       </c>
-      <c r="L18" s="5"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -1352,15 +1341,15 @@
       <c r="I19" s="18">
         <v>5000000</v>
       </c>
-      <c r="L19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -1386,17 +1375,17 @@
         <v>66</v>
       </c>
       <c r="I20" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="L20" s="5"/>
+        <v>400000</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -1424,109 +1413,79 @@
       <c r="I21" s="18">
         <v>10000000</v>
       </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J45" s="2"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J46" s="2"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J47" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/config_debug/activity_xycj_config.xlsx
+++ b/config_debug/activity_xycj_config.xlsx
@@ -198,8 +198,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -229,6 +229,45 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -236,6 +275,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -252,45 +367,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,83 +377,6 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -405,67 +405,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,115 +579,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,17 +625,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,35 +688,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,16 +708,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -730,10 +730,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -742,137 +742,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1259,7 +1259,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1605,7 +1605,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C12" s="13">
         <v>2</v>
@@ -1661,7 +1661,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="13">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" s="13">
         <v>2</v>

--- a/config_debug/activity_xycj_config.xlsx
+++ b/config_debug/activity_xycj_config.xlsx
@@ -75,22 +75,22 @@
     <t>福利券x255</t>
   </si>
   <si>
+    <t>福利券x4750</t>
+  </si>
+  <si>
+    <t>ty_icon_jb_50y</t>
+  </si>
+  <si>
+    <t>金币x1000万</t>
+  </si>
+  <si>
+    <t>jing_bi</t>
+  </si>
+  <si>
     <t>swjl_hwsj</t>
   </si>
   <si>
     <t>华为mate40 RS</t>
-  </si>
-  <si>
-    <t>ty_icon_jb_50y</t>
-  </si>
-  <si>
-    <t>金币x1000万</t>
-  </si>
-  <si>
-    <t>jing_bi</t>
-  </si>
-  <si>
-    <t>福利券x4750</t>
   </si>
   <si>
     <t>ty_icon_jb_30y</t>
@@ -229,24 +229,34 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,38 +270,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,7 +302,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,24 +316,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,25 +371,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -405,37 +405,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,133 +567,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,6 +655,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -673,17 +688,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -707,21 +722,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -730,10 +730,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -742,137 +742,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -915,22 +915,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1259,7 +1259,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1600,7 +1600,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="12" ht="17.25" spans="1:9">
+    <row r="12" spans="1:9">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -1611,20 +1611,22 @@
         <v>2</v>
       </c>
       <c r="D12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="15">
+        <v>1</v>
+      </c>
+      <c r="F12" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="15">
-        <v>1</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="G12" s="17">
-        <v>1</v>
-      </c>
-      <c r="H12" s="17"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>11</v>
+      </c>
       <c r="I12" s="17">
-        <v>1</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1637,26 +1639,26 @@
       <c r="C13" s="13">
         <v>2</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="15">
+        <v>1</v>
+      </c>
+      <c r="F13" s="16" t="s">
         <v>21</v>
-      </c>
-      <c r="E13" s="15">
-        <v>1</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>22</v>
       </c>
       <c r="G13" s="17">
         <v>0</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I13" s="17">
         <v>10000000</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" ht="17.25" spans="1:16">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -1667,7 +1669,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E14" s="15">
         <v>1</v>
@@ -1676,13 +1678,11 @@
         <v>24</v>
       </c>
       <c r="G14" s="17">
-        <v>0</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>11</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H14" s="17"/>
       <c r="I14" s="17">
-        <v>4750</v>
+        <v>1</v>
       </c>
       <c r="J14" s="21"/>
       <c r="K14" s="6"/>
@@ -1702,20 +1702,20 @@
       <c r="C15" s="13">
         <v>2</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="14" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="15">
         <v>1</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G15" s="17">
         <v>0</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I15" s="17">
         <v>5000000</v>
@@ -1738,13 +1738,13 @@
       <c r="C16" s="13">
         <v>2</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="14" t="s">
         <v>27</v>
       </c>
       <c r="E16" s="15">
         <v>1</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="16" t="s">
         <v>28</v>
       </c>
       <c r="G16" s="17">
@@ -1774,20 +1774,20 @@
       <c r="C17" s="13">
         <v>2</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="14" t="s">
         <v>29</v>
       </c>
       <c r="E17" s="15">
         <v>1</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="16" t="s">
         <v>30</v>
       </c>
       <c r="G17" s="17">
         <v>1</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I17" s="17">
         <v>100000000</v>
@@ -1810,13 +1810,13 @@
       <c r="C18" s="13">
         <v>2</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="14" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="15">
         <v>1</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="16" t="s">
         <v>31</v>
       </c>
       <c r="G18" s="17">
@@ -1846,20 +1846,20 @@
       <c r="C19" s="13">
         <v>2</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="14" t="s">
         <v>25</v>
       </c>
       <c r="E19" s="15">
         <v>1</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G19" s="17">
         <v>0</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I19" s="17">
         <v>5000000</v>
@@ -1882,13 +1882,13 @@
       <c r="C20" s="13">
         <v>2</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="14" t="s">
         <v>27</v>
       </c>
       <c r="E20" s="15">
         <v>1</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="16" t="s">
         <v>32</v>
       </c>
       <c r="G20" s="17">
@@ -1918,20 +1918,20 @@
       <c r="C21" s="13">
         <v>2</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="15">
+        <v>1</v>
+      </c>
+      <c r="F21" s="16" t="s">
         <v>21</v>
-      </c>
-      <c r="E21" s="15">
-        <v>1</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>22</v>
       </c>
       <c r="G21" s="17">
         <v>0</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I21" s="17">
         <v>10000000</v>
@@ -1960,11 +1960,16 @@
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" ht="17.25" spans="1:6">
+    <row r="26" ht="17.25" spans="1:9">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
-      <c r="D26" s="14"/>
-      <c r="F26" s="16"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="4"/>

--- a/config_debug/activity_xycj_config.xlsx
+++ b/config_debug/activity_xycj_config.xlsx
@@ -75,22 +75,22 @@
     <t>福利券x255</t>
   </si>
   <si>
+    <t>swjl_hwsj</t>
+  </si>
+  <si>
+    <t>华为mate40 RS</t>
+  </si>
+  <si>
+    <t>ty_icon_jb_50y</t>
+  </si>
+  <si>
+    <t>金币x1000万</t>
+  </si>
+  <si>
+    <t>jing_bi</t>
+  </si>
+  <si>
     <t>福利券x4750</t>
-  </si>
-  <si>
-    <t>ty_icon_jb_50y</t>
-  </si>
-  <si>
-    <t>金币x1000万</t>
-  </si>
-  <si>
-    <t>jing_bi</t>
-  </si>
-  <si>
-    <t>swjl_hwsj</t>
-  </si>
-  <si>
-    <t>华为mate40 RS</t>
   </si>
   <si>
     <t>ty_icon_jb_30y</t>
@@ -198,8 +198,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -230,12 +230,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,7 +251,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,21 +275,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,9 +288,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,14 +316,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -350,6 +345,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -357,15 +360,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,6 +372,11 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -405,187 +405,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,6 +625,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -641,21 +650,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -666,6 +660,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,22 +708,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,10 +730,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -742,137 +742,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -915,22 +915,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1259,7 +1259,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1600,33 +1600,31 @@
         <v>255</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" ht="17.25" spans="1:9">
       <c r="A12" s="13">
         <v>11</v>
       </c>
       <c r="B12" s="13">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C12" s="13">
         <v>2</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E12" s="15">
         <v>1</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G12" s="17">
-        <v>0</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>11</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H12" s="17"/>
       <c r="I12" s="17">
-        <v>4750</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1639,37 +1637,37 @@
       <c r="C13" s="13">
         <v>2</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>20</v>
+      <c r="D13" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="E13" s="15">
         <v>1</v>
       </c>
-      <c r="F13" s="16" t="s">
-        <v>21</v>
+      <c r="F13" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="G13" s="17">
         <v>0</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I13" s="17">
         <v>10000000</v>
       </c>
     </row>
-    <row r="14" ht="17.25" spans="1:16">
+    <row r="14" spans="1:16">
       <c r="A14" s="13">
         <v>13</v>
       </c>
       <c r="B14" s="13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C14" s="13">
         <v>2</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E14" s="15">
         <v>1</v>
@@ -1678,11 +1676,13 @@
         <v>24</v>
       </c>
       <c r="G14" s="17">
-        <v>1</v>
-      </c>
-      <c r="H14" s="17"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>11</v>
+      </c>
       <c r="I14" s="17">
-        <v>1</v>
+        <v>4750</v>
       </c>
       <c r="J14" s="21"/>
       <c r="K14" s="6"/>
@@ -1702,20 +1702,20 @@
       <c r="C15" s="13">
         <v>2</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="15">
         <v>1</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="19" t="s">
         <v>26</v>
       </c>
       <c r="G15" s="17">
         <v>0</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I15" s="17">
         <v>5000000</v>
@@ -1738,13 +1738,13 @@
       <c r="C16" s="13">
         <v>2</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="18" t="s">
         <v>27</v>
       </c>
       <c r="E16" s="15">
         <v>1</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="19" t="s">
         <v>28</v>
       </c>
       <c r="G16" s="17">
@@ -1774,20 +1774,20 @@
       <c r="C17" s="13">
         <v>2</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="18" t="s">
         <v>29</v>
       </c>
       <c r="E17" s="15">
         <v>1</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="19" t="s">
         <v>30</v>
       </c>
       <c r="G17" s="17">
         <v>1</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I17" s="17">
         <v>100000000</v>
@@ -1810,13 +1810,13 @@
       <c r="C18" s="13">
         <v>2</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="18" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="15">
         <v>1</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="19" t="s">
         <v>31</v>
       </c>
       <c r="G18" s="17">
@@ -1846,20 +1846,20 @@
       <c r="C19" s="13">
         <v>2</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E19" s="15">
         <v>1</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="19" t="s">
         <v>26</v>
       </c>
       <c r="G19" s="17">
         <v>0</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I19" s="17">
         <v>5000000</v>
@@ -1882,13 +1882,13 @@
       <c r="C20" s="13">
         <v>2</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="18" t="s">
         <v>27</v>
       </c>
       <c r="E20" s="15">
         <v>1</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="19" t="s">
         <v>32</v>
       </c>
       <c r="G20" s="17">
@@ -1918,20 +1918,20 @@
       <c r="C21" s="13">
         <v>2</v>
       </c>
-      <c r="D21" s="14" t="s">
-        <v>20</v>
+      <c r="D21" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="E21" s="15">
         <v>1</v>
       </c>
-      <c r="F21" s="16" t="s">
-        <v>21</v>
+      <c r="F21" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="G21" s="17">
         <v>0</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I21" s="17">
         <v>10000000</v>
@@ -1964,9 +1964,9 @@
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="13"/>
-      <c r="D26" s="18"/>
+      <c r="D26" s="14"/>
       <c r="E26" s="15"/>
-      <c r="F26" s="19"/>
+      <c r="F26" s="16"/>
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
@@ -1984,9 +1984,16 @@
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" ht="17.25" spans="1:9">
       <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="4"/>

--- a/config_debug/activity_xycj_config.xlsx
+++ b/config_debug/activity_xycj_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.26\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -195,11 +195,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>福利券宝箱</t>
+    <t>prop_xyzp_flqbx</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>prop_xyzp_flqbx</t>
+    <t>福利券宝箱\n3千-1万</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -219,6 +219,7 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -231,23 +232,27 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -396,10 +401,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -680,7 +685,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1201,14 +1206,14 @@
       <c r="E17" s="15">
         <v>1</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="22" t="s">
         <v>57</v>
-      </c>
-      <c r="G17" s="17">
-        <v>1</v>
-      </c>
-      <c r="H17" s="23" t="s">
-        <v>58</v>
       </c>
       <c r="I17" s="17">
         <v>1</v>
